--- a/BalanceSheet/ANET_bal.xlsx
+++ b/BalanceSheet/ANET_bal.xlsx
@@ -460,19 +460,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-41322000.0</v>
+        <v>498000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-111105000.0</v>
+        <v>448000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-65200000.0</v>
+        <v>339000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-17691000.0</v>
+        <v>275000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-4024000.0</v>
+        <v>258000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>239802000.0</v>
@@ -1885,19 +1885,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-30642000.0</v>
+        <v>134000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>40330000.0</v>
+        <v>163000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>37859000.0</v>
+        <v>123000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-6386000.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>12424000.0</v>
+        <v>92000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>78600000.0</v>
@@ -3211,19 +3211,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-12405000.0</v>
+        <v>-214000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>593000.0</v>
+        <v>-196000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2211000.0</v>
+        <v>-195000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>457000.0</v>
+        <v>-198000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>-86686000.0</v>
+        <v>-197000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>60278000.0</v>
